--- a/Backend/employee.xlsx
+++ b/Backend/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padal\OneDrive\Desktop\CodeFest\CodeFest\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85736F2E-FA06-4313-8C6F-C0A7F7633259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D4FBB0-36E9-464C-B666-07F631F95B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>YearExp</t>
+  </si>
+  <si>
+    <t>Assigned</t>
   </si>
 </sst>
 </file>
@@ -377,9 +380,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +708,7 @@
     <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -730,8 +736,11 @@
       <c r="I1" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -759,8 +768,11 @@
       <c r="I2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -788,8 +800,11 @@
       <c r="I3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -817,8 +832,11 @@
       <c r="I4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -846,8 +864,11 @@
       <c r="I5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -875,8 +896,11 @@
       <c r="I6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -904,8 +928,11 @@
       <c r="I7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -933,8 +960,11 @@
       <c r="I8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -962,8 +992,11 @@
       <c r="I9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -991,8 +1024,11 @@
       <c r="I10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1020,8 +1056,11 @@
       <c r="I11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1049,8 +1088,11 @@
       <c r="I12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1078,8 +1120,11 @@
       <c r="I13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1107,8 +1152,11 @@
       <c r="I14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1136,8 +1184,11 @@
       <c r="I15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1165,8 +1216,11 @@
       <c r="I16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1194,8 +1248,11 @@
       <c r="I17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1223,8 +1280,11 @@
       <c r="I18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -1252,8 +1312,11 @@
       <c r="I19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -1281,8 +1344,11 @@
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1309,6 +1375,9 @@
       </c>
       <c r="I21">
         <v>6</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
